--- a/src/enspect/database/luftschadstoffinventur/THG_1990_2017.xlsx
+++ b/src/enspect/database/luftschadstoffinventur/THG_1990_2017.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8F62B-F606-4D31-9642-F67A311C3ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="AT_THG_TOTAL" sheetId="4" r:id="rId1"/>
-    <sheet name="AT_THG_ETS_INDUSTRY" sheetId="15" r:id="rId2"/>
-    <sheet name="AT_THG_ETS_ENERGY" sheetId="14" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="16" r:id="rId2"/>
+    <sheet name="AT_THG_ETS_INDUSTRY" sheetId="15" r:id="rId3"/>
+    <sheet name="AT_THG_ETS_ENERGY" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Umrechnungsfaktor" localSheetId="1">#REF!</definedName>
+    <definedName name="Umrechnungsfaktor" localSheetId="2">#REF!</definedName>
     <definedName name="Umrechnungsfaktor">#REF!</definedName>
-    <definedName name="Umrechungsfaktor" localSheetId="1">#REF!</definedName>
+    <definedName name="Umrechungsfaktor" localSheetId="2">#REF!</definedName>
     <definedName name="Umrechungsfaktor">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -434,18 +434,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="20% - Accent3" xfId="10" builtinId="38"/>
-    <cellStyle name="20% - Accent5" xfId="11" builtinId="46"/>
-    <cellStyle name="40% - Accent1" xfId="9" builtinId="31"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="cells" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="column field" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="heading" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20 % - Akzent3" xfId="10" builtinId="38"/>
+    <cellStyle name="20 % - Akzent5" xfId="11" builtinId="46"/>
+    <cellStyle name="40 % - Akzent1" xfId="9" builtinId="31"/>
+    <cellStyle name="cells" xfId="7"/>
+    <cellStyle name="column field" xfId="6"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="heading" xfId="5"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Standard 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="4"/>
+    <cellStyle name="Standard 3" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,88 +722,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:BU34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BU1" sqref="B1:BU1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="12" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="12" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="12" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1990</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>8346</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>8135</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>8710</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>9156</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>10025</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>9886</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>10257</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>9419</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>8843</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>8940</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>9308</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>9576</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>8918</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>8178</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>8158</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>7597</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>8084</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>8396</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -5660,22 +5660,8 @@
         <v>8765</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
@@ -5688,16 +5674,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -5729,7 +5727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>2005</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>19021</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2006</v>
       </c>
@@ -5799,7 +5797,7 @@
         <v>19127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2007</v>
       </c>
@@ -5834,7 +5832,7 @@
         <v>19788</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>2008</v>
       </c>
@@ -5869,7 +5867,7 @@
         <v>20252</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>2009</v>
       </c>
@@ -5904,7 +5902,7 @@
         <v>16671</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>2010</v>
       </c>
@@ -5939,7 +5937,7 @@
         <v>18813</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>2011</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>19017</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>2012</v>
       </c>
@@ -6009,7 +6007,7 @@
         <v>18292</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>2013</v>
       </c>
@@ -6044,7 +6042,7 @@
         <v>19929</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>2014</v>
       </c>
@@ -6079,7 +6077,7 @@
         <v>19982</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2015</v>
       </c>
@@ -6114,7 +6112,7 @@
         <v>20223</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>2016</v>
       </c>
@@ -6149,7 +6147,7 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>2017</v>
       </c>
@@ -6190,20 +6188,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -6235,7 +6233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>2005</v>
       </c>
@@ -6270,7 +6268,7 @@
         <v>14352</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2006</v>
       </c>
@@ -6305,7 +6303,7 @@
         <v>13254</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>2007</v>
       </c>
@@ -6340,7 +6338,7 @@
         <v>11956</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>2008</v>
       </c>
@@ -6375,7 +6373,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>2009</v>
       </c>
@@ -6410,7 +6408,7 @@
         <v>10689</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>2010</v>
       </c>
@@ -6445,7 +6443,7 @@
         <v>12106</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>2011</v>
       </c>
@@ -6480,7 +6478,7 @@
         <v>11582</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>2012</v>
       </c>
@@ -6515,7 +6513,7 @@
         <v>10095</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>2013</v>
       </c>
@@ -6550,7 +6548,7 @@
         <v>9928</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>2014</v>
       </c>
@@ -6585,7 +6583,7 @@
         <v>8125</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>2015</v>
       </c>
@@ -6620,7 +6618,7 @@
         <v>9269</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>2016</v>
       </c>
@@ -6655,7 +6653,7 @@
         <v>8987</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>2017</v>
       </c>
@@ -6690,7 +6688,7 @@
         <v>9595</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
